--- a/doc/表格清單v5.xlsx
+++ b/doc/表格清單v5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\git\Charlotte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{F60AE800-EA03-4A30-921B-58BB0DAAECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C099B1A-B8DB-4C80-8A9E-72DA52557187}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{F60AE800-EA03-4A30-921B-58BB0DAAECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C8EB63A-46ED-4595-8310-4813CD13ABDE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="999" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="999" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserMain" sheetId="1" r:id="rId1"/>
     <sheet name="UserLoginLog" sheetId="4" r:id="rId2"/>
-    <sheet name="RefreshTokenLog" sheetId="6" r:id="rId3"/>
+    <sheet name="UserRefreshTokenLog" sheetId="6" r:id="rId3"/>
     <sheet name="ManagerMain" sheetId="9" r:id="rId4"/>
     <sheet name="ManagerRole" sheetId="23" r:id="rId5"/>
     <sheet name="ManagerRoleAuth" sheetId="10" r:id="rId6"/>
@@ -25,12 +25,11 @@
     <sheet name="ProductType" sheetId="7" r:id="rId10"/>
     <sheet name="ProductImg" sheetId="15" r:id="rId11"/>
     <sheet name="ProductInformation" sheetId="27" r:id="rId12"/>
-    <sheet name="ShippingMethod" sheetId="28" r:id="rId13"/>
-    <sheet name="SalesOrder" sheetId="17" r:id="rId14"/>
-    <sheet name="SalesOrderDetails" sheetId="18" r:id="rId15"/>
-    <sheet name="Factory" sheetId="20" r:id="rId16"/>
-    <sheet name="PurchaseOrder" sheetId="24" r:id="rId17"/>
-    <sheet name="PurchaseOrderDetails" sheetId="25" r:id="rId18"/>
+    <sheet name="SalesOrder" sheetId="17" r:id="rId13"/>
+    <sheet name="SalesOrderDetails" sheetId="18" r:id="rId14"/>
+    <sheet name="Factory" sheetId="20" r:id="rId15"/>
+    <sheet name="PurchaseOrder" sheetId="24" r:id="rId16"/>
+    <sheet name="PurchaseOrderDetails" sheetId="25" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,9 +51,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="165">
-  <si>
-    <t>UserMain(消費者)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="177">
+  <si>
+    <t>UserMain(消費者資料)</t>
   </si>
   <si>
     <t>項次</t>
@@ -167,7 +166,6 @@
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>nchar(1)</t>
@@ -218,6 +216,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>資料表名稱</t>
+  </si>
+  <si>
+    <t>關聯(主表 : 外表)</t>
+  </si>
+  <si>
+    <t>UserLoginLog</t>
+  </si>
+  <si>
+    <t>1:*</t>
+  </si>
+  <si>
+    <t>UserRefreshTokenLog</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
     <t>UserLoginLog(消費者登入紀錄)</t>
   </si>
   <si>
@@ -232,8 +248,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>使用者ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>消費者ID</t>
   </si>
   <si>
     <t>參考UserMain</t>
@@ -248,10 +263,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Flag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>登入成功失敗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>UserMain</t>
+  </si>
+  <si>
+    <t>*:1</t>
+  </si>
+  <si>
     <t>UserRefreshTokenLog(UserToken紀錄)</t>
   </si>
   <si>
@@ -275,15 +300,17 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ManagerMain(管理者平台)</t>
+    <t>ManagerMain(管理者資料)</t>
   </si>
   <si>
     <t>ManagerUserId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>使用者名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>管理者ID</t>
+  </si>
+  <si>
+    <t>管理者名稱</t>
   </si>
   <si>
     <t>RoleId</t>
@@ -295,10 +322,15 @@
   </si>
   <si>
     <t>參考ManagerRole</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManagerRole(管理者平台身份)</t>
+  </si>
+  <si>
+    <t>ManagerRole</t>
+  </si>
+  <si>
+    <t>ManagerLoginLog</t>
+  </si>
+  <si>
+    <t>ManagerRole(管理者身份)</t>
   </si>
   <si>
     <t>身份ID</t>
@@ -313,6 +345,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ManagerMain</t>
+  </si>
+  <si>
+    <t>ManagerRoleAuth</t>
+  </si>
+  <si>
     <t>ManagerRoleAuth(管理平台身份權限)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -326,7 +364,6 @@
   </si>
   <si>
     <t>參考Router</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ViewAuth</t>
@@ -373,16 +410,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Router</t>
+  </si>
+  <si>
     <t>ManagerLoginLog(管理者登入紀錄)</t>
   </si>
   <si>
     <t>參考ManagerMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ManagerRefreshTokenLog(管理者Token紀錄)</t>
   </si>
   <si>
+    <t>參考ManagerMain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Router(路由表)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -455,6 +498,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ProductInformation</t>
+  </si>
+  <si>
     <t>ProductImg(產品資訊圖片)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -476,7 +522,6 @@
   </si>
   <si>
     <t>參考ProductInformation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ProductImgPath</t>
@@ -503,7 +548,6 @@
   </si>
   <si>
     <t>參考ProductType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SuggestedPrice</t>
@@ -532,53 +576,22 @@
   </si>
   <si>
     <t>參考Factory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主要圖片路徑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ShippingMethod(運送方式)</t>
-  </si>
-  <si>
-    <t>ShippingId</t>
-  </si>
-  <si>
-    <t>運送方式ID</t>
-  </si>
-  <si>
-    <t>ShippingName</t>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-  </si>
-  <si>
-    <t>運送方式名稱</t>
-  </si>
-  <si>
-    <t>ShippingStoreName</t>
-  </si>
-  <si>
-    <t>運送店名</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>ShippingAddress</t>
-  </si>
-  <si>
-    <t>nvarchar(255)</t>
-  </si>
-  <si>
-    <t>運送地址</t>
-  </si>
-  <si>
-    <t>ShippingCost</t>
-  </si>
-  <si>
-    <t>運費</t>
+    <t>ProductImg</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>PurchaseOrderDetails</t>
   </si>
   <si>
     <t>SalesOrder(銷售訂單)</t>
@@ -592,10 +605,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
-    <t>參考ShippingMethod</t>
+    <t>參考UserMain</t>
   </si>
   <si>
     <t>SalesOrderDetails(銷售訂單明細)</t>
@@ -621,6 +631,12 @@
     <t>產品銷售單價</t>
   </si>
   <si>
+    <t>ArrivalDate</t>
+  </si>
+  <si>
+    <t>到貨時間</t>
+  </si>
+  <si>
     <t>Factory(廠商資訊)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -630,7 +646,12 @@
   </si>
   <si>
     <t>廠商名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+  </si>
+  <si>
+    <t>修改時間</t>
   </si>
   <si>
     <t>PurchaseOrder(進貨訂單)</t>
@@ -651,26 +672,32 @@
     <t>商品ID</t>
   </si>
   <si>
-    <t>參考ProductInformation</t>
-  </si>
-  <si>
-    <t>BatchNumber</t>
-  </si>
-  <si>
-    <t>批號</t>
-  </si>
-  <si>
     <t>商品進貨數量</t>
   </si>
   <si>
+    <t>ProductPrice</t>
+  </si>
+  <si>
     <t>商品進貨單價</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>是否結單</t>
+  </si>
+  <si>
+    <t>PurchaseOrder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,16 +760,8 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,8 +786,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -824,13 +849,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,15 +945,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,10 +954,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,8 +990,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,31 +1316,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1521,9 +1596,64 @@
       </c>
       <c r="F14" s="6"/>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <f>ROW()-16</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <f>ROW()-16</f>
+        <v>2</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <f>ROW()-16</f>
+        <v>3</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1532,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -1543,20 +1673,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1584,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -1603,13 +1733,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -1622,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>38</v>
@@ -1654,9 +1784,38 @@
       </c>
       <c r="F6" s="6"/>
     </row>
+    <row r="7" spans="1:6" ht="16.5"/>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="7">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,30 +1824,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1716,38 +1875,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="3">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>108</v>
+      <c r="F4" s="38" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1756,13 +1915,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
@@ -1775,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>38</v>
@@ -1802,14 +1961,41 @@
       <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="6"/>
     </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
+        <f>ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1818,30 +2004,30 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8967B786-6544-4B28-822B-4BE814129C5F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1869,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -1888,13 +2074,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -1907,19 +2093,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>115</v>
+      <c r="F5" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1928,16 +2114,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1947,13 +2133,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -1966,19 +2152,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>123</v>
+      <c r="F8" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1987,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>38</v>
@@ -2014,7 +2200,7 @@
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="6"/>
@@ -2025,183 +2211,102 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="6"/>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.149999999999999">
+      <c r="A14" s="7">
+        <f>ROW()-13</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <f t="shared" ref="A15:A17" si="1">ROW()-13</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDF1497-077D-4587-8EF7-41176FDBB151}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <f>ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <f>ROW()-2</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <f>ROW()-2</f>
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -2209,20 +2314,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2250,101 +2355,109 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="24">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
+      <c r="E4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>2</v>
+        <f t="shared" ref="A5:A6" si="0">ROW()-2</f>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <f t="shared" ref="A6:A7" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:6" ht="16.5"/>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="27" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2352,12 +2465,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -2365,20 +2478,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2400,61 +2513,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="7">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>108</v>
+      <c r="F4" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A8" si="0">ROW()-2</f>
+        <f t="shared" ref="A5:A9" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>10</v>
@@ -2467,13 +2580,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>10</v>
@@ -2486,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>38</v>
@@ -2513,16 +2626,236 @@
       <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5"/>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
     <row r="10" spans="1:6" ht="16.5"/>
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="7">
+        <f>ROW()-11</f>
+        <v>1</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="7">
+        <f>ROW()-11</f>
+        <v>2</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <f t="shared" ref="A5:A6" si="0">ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <f>ROW()-13</f>
+        <v>-4</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2530,144 +2863,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
-  <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <f>ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <f t="shared" ref="A5:A6" si="0">ROW()-2</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50CCE58-F1B9-4AE0-8875-9908DE1EE2B7}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2680,14 +2880,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2715,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -2734,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>38</v>
@@ -2761,46 +2961,73 @@
       <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="6"/>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D13191-879C-43A1-8755-880467DF42E4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2828,19 +3055,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>158</v>
+      <c r="F3" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2849,52 +3076,53 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>160</v>
+      <c r="F4" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
+        <f t="shared" ref="A5:A9" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <f t="shared" ref="A6:A9" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>147</v>
+      <c r="B6" t="s">
+        <v>171</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>10</v>
@@ -2906,16 +3134,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6"/>
@@ -2926,16 +3154,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2945,22 +3173,63 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>25</v>
+        <v>175</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="F9" s="6"/>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
+        <f>ROW()-12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
+        <f>ROW()-12</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -2980,20 +3249,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -3021,13 +3290,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -3046,13 +3315,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3061,13 +3330,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
@@ -3080,13 +3349,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
@@ -3095,9 +3364,37 @@
         <v>32</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="7">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -3117,20 +3414,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -3158,13 +3455,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -3183,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3198,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>38</v>
@@ -3217,22 +3514,49 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6"/>
     </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="7">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3241,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -3252,20 +3576,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -3293,13 +3617,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -3318,7 +3642,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -3382,7 +3706,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="14">
         <f>ROW()-2</f>
         <v>6</v>
@@ -3396,8 +3720,8 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -3426,7 +3750,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>30</v>
@@ -3441,25 +3765,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>62</v>
+      <c r="F11" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3500,9 +3824,50 @@
       </c>
       <c r="F13" s="6"/>
     </row>
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="7">
+        <f>ROW()-15</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="7">
+        <f>ROW()-15</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE1FA34-6681-4210-9F25-76CFD1B9C7C8}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -3522,7 +3887,7 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
@@ -3530,14 +3895,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -3565,13 +3930,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -3584,18 +3949,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
@@ -3603,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>38</v>
@@ -3635,9 +4000,51 @@
       </c>
       <c r="F6" s="6"/>
     </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="7">
+        <f>ROW()-8</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3646,17 +4053,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
@@ -3664,14 +4072,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -3699,19 +4107,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3720,19 +4128,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>70</v>
+      <c r="F4" s="22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3741,13 +4149,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
@@ -3760,13 +4168,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
@@ -3779,13 +4187,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -3798,13 +4206,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>10</v>
@@ -3817,19 +4225,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3838,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>38</v>
@@ -3870,9 +4278,50 @@
       </c>
       <c r="F11" s="6"/>
     </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
+        <f>ROW()-13</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <f>ROW()-13</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3881,10 +4330,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -3892,20 +4341,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -3933,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -3947,24 +4396,24 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>83</v>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3973,13 +4422,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
@@ -3992,13 +4441,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
@@ -4007,9 +4456,37 @@
         <v>32</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="7">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4018,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -4035,14 +4512,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -4070,38 +4547,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7">
+    <row r="4" spans="1:6" s="37" customFormat="1">
+      <c r="A4" s="24">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>83</v>
+      <c r="D4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4110,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>38</v>
@@ -4129,22 +4606,49 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6"/>
     </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,10 +4657,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -4164,20 +4668,20 @@
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -4205,13 +4709,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -4224,13 +4728,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>10</v>
@@ -4243,13 +4747,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>10</v>
@@ -4262,19 +4766,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4283,13 +4787,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>10</v>
@@ -4302,13 +4806,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>10</v>
@@ -4317,9 +4821,36 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
+        <f>ROW()-10</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
